--- a/WSM/下单结构分析.xlsx
+++ b/WSM/下单结构分析.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26812"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunshan/Documents/dianjia/Projects/WSM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dianjia\dianjia_projects\WSM\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A740AEDF-5F8F-4A04-898E-6464C9766EEB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940"/>
+    <workbookView xWindow="936" yWindow="456" windowWidth="28800" windowHeight="15936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全部" sheetId="5" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -225,13 +226,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -685,32 +686,32 @@
     <xf numFmtId="0" fontId="17" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1026,39 +1027,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J20" sqref="J20"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="18" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15.6" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.69921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="8.625" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.59765625" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="8.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.625" customWidth="1"/>
+    <col min="6" max="6" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.59765625" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="7.375" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="8.625" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="10.875" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="10.375" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="10.375" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="7.3984375" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="8.59765625" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="10.8984375" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="10.3984375" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="10.3984375" customWidth="1" outlineLevel="1"/>
     <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.59765625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="8.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="21.45" customHeight="1">
       <c r="A1" s="46" t="s">
         <v>19</v>
       </c>
@@ -1085,7 +1086,7 @@
       <c r="R1" s="51"/>
       <c r="S1" s="51"/>
     </row>
-    <row r="2" spans="1:19" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="21.45" customHeight="1">
       <c r="A2" s="46"/>
       <c r="B2" s="48" t="s">
         <v>2</v>
@@ -1110,7 +1111,7 @@
       <c r="R2" s="52"/>
       <c r="S2" s="52"/>
     </row>
-    <row r="3" spans="1:19" ht="26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="26.4">
       <c r="A3" s="47"/>
       <c r="B3" s="5" t="s">
         <v>4</v>
@@ -1167,7 +1168,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="11" t="s">
         <v>21</v>
       </c>
@@ -1235,7 +1236,7 @@
         <v>0.27246309170443334</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="11" t="s">
         <v>32</v>
       </c>
@@ -1303,7 +1304,7 @@
         <v>0.66908529403199812</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="11" t="s">
         <v>23</v>
       </c>
@@ -1371,7 +1372,7 @@
         <v>0.26052655920055989</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="11" t="s">
         <v>22</v>
       </c>
@@ -1439,7 +1440,7 @@
         <v>0.4591829774593818</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="11" t="s">
         <v>33</v>
       </c>
@@ -1507,7 +1508,7 @@
         <v>0.21318072456083306</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="11" t="s">
         <v>34</v>
       </c>
@@ -1575,7 +1576,7 @@
         <v>0.59441742952567234</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="12" t="s">
         <v>35</v>
       </c>
@@ -1640,7 +1641,7 @@
       </c>
       <c r="S10" s="6"/>
     </row>
-    <row r="11" spans="1:19" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="11" t="s">
         <v>36</v>
       </c>
@@ -1708,7 +1709,7 @@
         <v>0.17095183433396829</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="11" t="s">
         <v>52</v>
       </c>
@@ -1746,7 +1747,7 @@
       </c>
       <c r="S12" s="6"/>
     </row>
-    <row r="13" spans="1:19" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="11" t="s">
         <v>24</v>
       </c>
@@ -1814,7 +1815,7 @@
         <v>-1.9241837973641259E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="11" t="s">
         <v>25</v>
       </c>
@@ -1882,7 +1883,7 @@
         <v>0.12710561327401182</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="10" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" s="10" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A15" s="11" t="s">
         <v>26</v>
       </c>
@@ -1950,7 +1951,7 @@
         <v>0.32729302353048495</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="19" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" ht="16.2" thickTop="1">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -2019,28 +2020,28 @@
         <v>0.22056772401483121</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="45"/>
-      <c r="S17" s="45"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19">
+      <c r="A17" s="53"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="53"/>
+      <c r="R17" s="53"/>
+      <c r="S17" s="53"/>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="46" t="s">
         <v>19</v>
       </c>
@@ -2067,7 +2068,7 @@
       <c r="R18" s="51"/>
       <c r="S18" s="51"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19">
       <c r="A19" s="46"/>
       <c r="B19" s="48" t="s">
         <v>29</v>
@@ -2092,7 +2093,7 @@
       <c r="R19" s="52"/>
       <c r="S19" s="52"/>
     </row>
-    <row r="20" spans="1:19" ht="26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" ht="26.4">
       <c r="A20" s="47"/>
       <c r="B20" s="5" t="s">
         <v>4</v>
@@ -2149,7 +2150,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19">
       <c r="A21" s="11" t="s">
         <v>21</v>
       </c>
@@ -2176,7 +2177,7 @@
       <c r="H21" s="14">
         <v>5594</v>
       </c>
-      <c r="I21" s="53">
+      <c r="I21" s="45">
         <v>0.78186781048937415</v>
       </c>
       <c r="J21" s="14">
@@ -2217,7 +2218,7 @@
         <v>0.21854923804432327</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19">
       <c r="A22" s="11" t="s">
         <v>23</v>
       </c>
@@ -2244,7 +2245,7 @@
       <c r="H22" s="14">
         <v>73</v>
       </c>
-      <c r="I22" s="53">
+      <c r="I22" s="45">
         <v>0.68669527896995708</v>
       </c>
       <c r="J22" s="14">
@@ -2285,7 +2286,7 @@
         <v>7.1556350626118273E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19">
       <c r="A23" s="11" t="s">
         <v>22</v>
       </c>
@@ -2312,7 +2313,7 @@
       <c r="H23" s="14">
         <v>275</v>
       </c>
-      <c r="I23" s="53">
+      <c r="I23" s="45">
         <v>0.87912087912087911</v>
       </c>
       <c r="J23" s="14">
@@ -2353,7 +2354,7 @@
         <v>0.25232792066965343</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19">
       <c r="A24" s="11" t="s">
         <v>33</v>
       </c>
@@ -2380,7 +2381,7 @@
       <c r="H24" s="14">
         <v>81</v>
       </c>
-      <c r="I24" s="53">
+      <c r="I24" s="45">
         <v>0.88494318181818177</v>
       </c>
       <c r="J24" s="14">
@@ -2421,7 +2422,7 @@
         <v>0.4387299995525778</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19">
       <c r="A25" s="11" t="s">
         <v>34</v>
       </c>
@@ -2448,7 +2449,7 @@
       <c r="H25" s="14">
         <v>469</v>
       </c>
-      <c r="I25" s="53">
+      <c r="I25" s="45">
         <v>0.62055016181229772</v>
       </c>
       <c r="J25" s="14">
@@ -2486,7 +2487,7 @@
       </c>
       <c r="S25" s="6"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19">
       <c r="A26" s="12" t="s">
         <v>37</v>
       </c>
@@ -2513,7 +2514,7 @@
       <c r="H26" s="14">
         <v>2036</v>
       </c>
-      <c r="I26" s="53">
+      <c r="I26" s="45">
         <v>0.64511068502701763</v>
       </c>
       <c r="J26" s="14">
@@ -2554,7 +2555,7 @@
         <v>0.92332297219834369</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19">
       <c r="A27" s="12" t="s">
         <v>38</v>
       </c>
@@ -2581,7 +2582,7 @@
       <c r="H27" s="14">
         <v>326</v>
       </c>
-      <c r="I27" s="53">
+      <c r="I27" s="45">
         <v>0.9555555555555556</v>
       </c>
       <c r="J27" s="14">
@@ -2622,7 +2623,7 @@
         <v>0.5752520044242927</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19">
       <c r="A28" s="11" t="s">
         <v>36</v>
       </c>
@@ -2649,7 +2650,7 @@
       <c r="H28" s="14">
         <v>1833</v>
       </c>
-      <c r="I28" s="53">
+      <c r="I28" s="45">
         <v>0.74838709677419357</v>
       </c>
       <c r="J28" s="14">
@@ -2690,7 +2691,7 @@
         <v>0.10186515574831112</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19">
       <c r="A29" s="11" t="s">
         <v>27</v>
       </c>
@@ -2717,7 +2718,7 @@
       <c r="H29" s="14">
         <v>44</v>
       </c>
-      <c r="I29" s="53">
+      <c r="I29" s="45">
         <v>0.80616740088105732</v>
       </c>
       <c r="J29" s="14">
@@ -2755,7 +2756,7 @@
       </c>
       <c r="S29" s="6"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19">
       <c r="A30" s="11" t="s">
         <v>24</v>
       </c>
@@ -2782,7 +2783,7 @@
       <c r="H30" s="14">
         <v>322</v>
       </c>
-      <c r="I30" s="53">
+      <c r="I30" s="45">
         <v>0.67008196721311475</v>
       </c>
       <c r="J30" s="14">
@@ -2823,7 +2824,7 @@
         <v>0.19936227193033162</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19">
       <c r="A31" s="11" t="s">
         <v>25</v>
       </c>
@@ -2850,7 +2851,7 @@
       <c r="H31" s="14">
         <v>416</v>
       </c>
-      <c r="I31" s="53">
+      <c r="I31" s="45">
         <v>0.80284360189573456</v>
       </c>
       <c r="J31" s="14">
@@ -2891,7 +2892,7 @@
         <v>0.18135538986857891</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="16.2" thickBot="1">
       <c r="A32" s="11" t="s">
         <v>26</v>
       </c>
@@ -2918,7 +2919,7 @@
       <c r="H32" s="14">
         <v>1939</v>
       </c>
-      <c r="I32" s="53">
+      <c r="I32" s="45">
         <v>0.64636148094109069</v>
       </c>
       <c r="J32" s="14">
@@ -2959,7 +2960,7 @@
         <v>0.14788425840171707</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="19" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" ht="16.2" thickTop="1">
       <c r="A33" s="1" t="s">
         <v>18</v>
       </c>
@@ -3033,17 +3034,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="N1:S1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="N2:S2"/>
     <mergeCell ref="A17:S17"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="B18:M18"/>
     <mergeCell ref="N18:S18"/>
     <mergeCell ref="B19:M19"/>
     <mergeCell ref="N19:S19"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="N2:S2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="D4:D12 D14:D15">
@@ -3172,16 +3173,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15.6"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="26.4">
       <c r="A1" s="28" t="s">
         <v>39</v>
       </c>
@@ -3207,7 +3208,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="32" t="s">
         <v>21</v>
       </c>
@@ -3233,7 +3234,7 @@
         <v>136.45670000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="32" t="s">
         <v>40</v>
       </c>
@@ -3259,7 +3260,7 @@
         <v>57.209000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="34" t="s">
         <v>46</v>
       </c>
@@ -3285,7 +3286,7 @@
         <v>117.62990000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="32" t="s">
         <v>23</v>
       </c>
@@ -3311,7 +3312,7 @@
         <v>53.031599999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="35" t="s">
         <v>22</v>
       </c>
@@ -3337,7 +3338,7 @@
         <v>64.134100000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="35" t="s">
         <v>47</v>
       </c>
@@ -3363,7 +3364,7 @@
         <v>125.1451</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="32" t="s">
         <v>48</v>
       </c>
@@ -3389,7 +3390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="35" t="s">
         <v>49</v>
       </c>
@@ -3415,7 +3416,7 @@
         <v>194.73920000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="32" t="s">
         <v>50</v>
       </c>
@@ -3441,7 +3442,7 @@
         <v>27.8614</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="35" t="s">
         <v>51</v>
       </c>
@@ -3467,7 +3468,7 @@
         <v>46.688600000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="32" t="s">
         <v>41</v>
       </c>
@@ -3493,7 +3494,7 @@
         <v>12.0261</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="32" t="s">
         <v>27</v>
       </c>
@@ -3519,7 +3520,7 @@
         <v>111.1489</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="32" t="s">
         <v>24</v>
       </c>
@@ -3537,7 +3538,7 @@
       <c r="H14" s="40"/>
       <c r="I14" s="42"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="35" t="s">
         <v>25</v>
       </c>
@@ -3551,7 +3552,7 @@
         <v>149.797</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" s="35" t="s">
         <v>26</v>
       </c>
